--- a/CoC.xlsx
+++ b/CoC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Serg\Программирование\Git\CoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F36F80-265F-4B9B-91BB-5BC12B4F2944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA328D9-343A-4A45-8775-D890CF05FA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -540,17 +540,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -774,31 +769,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="A295" sqref="A295:F295"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2634,14 +2629,14 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
@@ -2969,14 +2964,14 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="8" t="s">
+      <c r="A170" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
@@ -3148,14 +3143,14 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="8" t="s">
+      <c r="A184" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="8"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
@@ -3249,14 +3244,14 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="8" t="s">
+      <c r="A192" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B192" s="8"/>
-      <c r="C192" s="8"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
@@ -3278,7 +3273,7 @@
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>4</v>
@@ -3311,14 +3306,14 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="8" t="s">
+      <c r="A197" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="8"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
@@ -3425,24 +3420,24 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="7" t="s">
+      <c r="A206" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B206" s="7"/>
-      <c r="C206" s="7"/>
-      <c r="D206" s="7"/>
-      <c r="E206" s="7"/>
-      <c r="F206" s="7"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="8"/>
+      <c r="D206" s="8"/>
+      <c r="E206" s="8"/>
+      <c r="F206" s="8"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="8" t="s">
+      <c r="A207" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B207" s="8"/>
-      <c r="C207" s="8"/>
-      <c r="D207" s="8"/>
-      <c r="E207" s="8"/>
-      <c r="F207" s="8"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="7"/>
+      <c r="F207" s="7"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
@@ -4407,14 +4402,14 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A282" s="8" t="s">
+      <c r="A282" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B282" s="8"/>
-      <c r="C282" s="8"/>
-      <c r="D282" s="8"/>
-      <c r="E282" s="8"/>
-      <c r="F282" s="8"/>
+      <c r="B282" s="7"/>
+      <c r="C282" s="7"/>
+      <c r="D282" s="7"/>
+      <c r="E282" s="7"/>
+      <c r="F282" s="7"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
@@ -4560,11 +4555,9 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="11" t="s">
+      <c r="A294" t="s">
         <v>143</v>
       </c>
-      <c r="B294" s="10"/>
-      <c r="C294" s="10"/>
       <c r="D294" s="2" t="s">
         <v>4</v>
       </c>
@@ -4573,14 +4566,14 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A295" s="9" t="s">
+      <c r="A295" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B295" s="9"/>
-      <c r="C295" s="9"/>
-      <c r="D295" s="9"/>
-      <c r="E295" s="9"/>
-      <c r="F295" s="9"/>
+      <c r="B295" s="7"/>
+      <c r="C295" s="7"/>
+      <c r="D295" s="7"/>
+      <c r="E295" s="7"/>
+      <c r="F295" s="7"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
@@ -4689,17 +4682,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A192:F192"/>
-    <mergeCell ref="A197:F197"/>
-    <mergeCell ref="A206:F206"/>
-    <mergeCell ref="A207:F207"/>
-    <mergeCell ref="A282:F282"/>
     <mergeCell ref="A295:F295"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A144:F144"/>
     <mergeCell ref="A170:F170"/>
     <mergeCell ref="A184:F184"/>
+    <mergeCell ref="A192:F192"/>
+    <mergeCell ref="A197:F197"/>
+    <mergeCell ref="A206:F206"/>
+    <mergeCell ref="A207:F207"/>
+    <mergeCell ref="A282:F282"/>
   </mergeCells>
   <pageMargins left="0.70000004768371604" right="0.70000004768371604" top="0.75" bottom="0.75" header="0.30000001192092901" footer="0.30000001192092901"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/CoC.xlsx
+++ b/CoC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Serg\Программирование\Git\CoC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de7ad4112e8cf2db/Документы/GitHub/coc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA328D9-343A-4A45-8775-D890CF05FA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{1EA328D9-343A-4A45-8775-D890CF05FA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86F13BBC-B915-416F-BA7E-A80022693BED}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="144">
   <si>
     <t>Родная деревня</t>
   </si>
@@ -769,13 +769,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="D195" sqref="D195"/>
+    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="164" workbookViewId="0">
+      <selection activeCell="C294" sqref="C294"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -785,7 +785,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -795,7 +795,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -805,10 +805,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -821,7 +821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -834,7 +834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,7 +847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,7 +860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -870,10 +870,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -883,10 +883,10 @@
         <v>19</v>
       </c>
       <c r="F9" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -896,10 +896,10 @@
         <v>19</v>
       </c>
       <c r="F10" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,10 +909,10 @@
         <v>19</v>
       </c>
       <c r="F11" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -922,10 +922,10 @@
         <v>19</v>
       </c>
       <c r="F12" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,10 +935,10 @@
         <v>19</v>
       </c>
       <c r="F13" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -964,7 +964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -974,10 +974,10 @@
         <v>20</v>
       </c>
       <c r="F16" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,10 +987,10 @@
         <v>20</v>
       </c>
       <c r="F17" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,10 +1026,10 @@
         <v>20</v>
       </c>
       <c r="F20" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1078,10 +1078,10 @@
         <v>14</v>
       </c>
       <c r="F24" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1091,10 +1091,10 @@
         <v>14</v>
       </c>
       <c r="F25" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,10 +1104,10 @@
         <v>14</v>
       </c>
       <c r="F26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,11 +1116,11 @@
       <c r="D27" s="2">
         <v>14</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -1143,10 +1143,10 @@
         <v>12</v>
       </c>
       <c r="F29" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -1156,10 +1156,10 @@
         <v>12</v>
       </c>
       <c r="F30" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -1169,10 +1169,10 @@
         <v>12</v>
       </c>
       <c r="F31" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -1181,11 +1181,11 @@
       <c r="D32" s="2">
         <v>12</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F32" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
@@ -1234,10 +1234,10 @@
         <v>14</v>
       </c>
       <c r="F36" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,10 +1247,10 @@
         <v>13</v>
       </c>
       <c r="F37" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -1260,10 +1260,10 @@
         <v>13</v>
       </c>
       <c r="F38" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,10 +1273,10 @@
         <v>13</v>
       </c>
       <c r="F39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -1285,11 +1285,11 @@
       <c r="D40" s="2">
         <v>13</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,11 +1311,11 @@
       <c r="D42" s="2">
         <v>9</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F42" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1324,11 +1324,11 @@
       <c r="D43" s="2">
         <v>9</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>15</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
@@ -1403,10 +1403,10 @@
         <v>7</v>
       </c>
       <c r="F49" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,11 +1415,11 @@
       <c r="D50" s="2">
         <v>7</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F50" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -1442,10 +1442,10 @@
         <v>9</v>
       </c>
       <c r="F52" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>19</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>19</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>20</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>20</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>22</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>22</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>22</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>22</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>22</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>22</v>
       </c>
@@ -1649,11 +1649,11 @@
       <c r="D68" s="2">
         <v>15</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F68" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>23</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>23</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>23</v>
       </c>
@@ -1689,10 +1689,10 @@
         <v>15</v>
       </c>
       <c r="F71" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>23</v>
       </c>
@@ -1701,11 +1701,11 @@
       <c r="D72" s="2">
         <v>15</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F72" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>24</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>24</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>24</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>24</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>24</v>
       </c>
@@ -1792,11 +1792,11 @@
       <c r="D79" s="2">
         <v>15</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F79" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>25</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>25</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>25</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>25</v>
       </c>
@@ -1844,11 +1844,11 @@
       <c r="D83" s="2">
         <v>15</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F83" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>26</v>
       </c>
@@ -1858,10 +1858,10 @@
         <v>9</v>
       </c>
       <c r="F84" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>26</v>
       </c>
@@ -1871,10 +1871,10 @@
         <v>9</v>
       </c>
       <c r="F85" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>26</v>
       </c>
@@ -1883,11 +1883,11 @@
       <c r="D86" s="2">
         <v>9</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F86" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>27</v>
       </c>
@@ -1897,10 +1897,10 @@
         <v>9</v>
       </c>
       <c r="F87" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>28</v>
       </c>
@@ -1910,10 +1910,10 @@
         <v>11</v>
       </c>
       <c r="F88" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>28</v>
       </c>
@@ -1923,10 +1923,10 @@
         <v>11</v>
       </c>
       <c r="F89" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>28</v>
       </c>
@@ -1936,10 +1936,10 @@
         <v>11</v>
       </c>
       <c r="F90" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>28</v>
       </c>
@@ -1949,10 +1949,10 @@
         <v>11</v>
       </c>
       <c r="F91" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>29</v>
       </c>
@@ -1962,10 +1962,10 @@
         <v>16</v>
       </c>
       <c r="F92" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
@@ -1975,10 +1975,10 @@
         <v>12</v>
       </c>
       <c r="F93" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>31</v>
       </c>
@@ -1988,10 +1988,10 @@
         <v>7</v>
       </c>
       <c r="F94" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>32</v>
       </c>
@@ -2001,10 +2001,10 @@
         <v>9</v>
       </c>
       <c r="F95" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>33</v>
       </c>
@@ -2014,10 +2014,10 @@
         <v>5</v>
       </c>
       <c r="F96" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>34</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>41</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>35</v>
       </c>
@@ -2053,10 +2053,10 @@
         <v>10</v>
       </c>
       <c r="F99" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>35</v>
       </c>
@@ -2066,10 +2066,10 @@
         <v>10</v>
       </c>
       <c r="F100" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>35</v>
       </c>
@@ -2079,10 +2079,10 @@
         <v>10</v>
       </c>
       <c r="F101" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>35</v>
       </c>
@@ -2092,10 +2092,10 @@
         <v>10</v>
       </c>
       <c r="F102" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>35</v>
       </c>
@@ -2105,10 +2105,10 @@
         <v>10</v>
       </c>
       <c r="F103" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>35</v>
       </c>
@@ -2118,10 +2118,10 @@
         <v>10</v>
       </c>
       <c r="F104" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>35</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>142</v>
       </c>
@@ -2157,10 +2157,10 @@
         <v>5</v>
       </c>
       <c r="F107" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>142</v>
       </c>
@@ -2170,10 +2170,10 @@
         <v>5</v>
       </c>
       <c r="F108" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>142</v>
       </c>
@@ -2183,10 +2183,10 @@
         <v>5</v>
       </c>
       <c r="F109" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>142</v>
       </c>
@@ -2196,10 +2196,10 @@
         <v>5</v>
       </c>
       <c r="F110" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>142</v>
       </c>
@@ -2209,10 +2209,10 @@
         <v>5</v>
       </c>
       <c r="F111" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>142</v>
       </c>
@@ -2222,10 +2222,10 @@
         <v>5</v>
       </c>
       <c r="F112" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>142</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>142</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>142</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>36</v>
       </c>
@@ -2274,10 +2274,10 @@
         <v>8</v>
       </c>
       <c r="F116" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>36</v>
       </c>
@@ -2287,10 +2287,10 @@
         <v>8</v>
       </c>
       <c r="F117" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>36</v>
       </c>
@@ -2300,10 +2300,10 @@
         <v>8</v>
       </c>
       <c r="F118" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>36</v>
       </c>
@@ -2312,11 +2312,11 @@
       <c r="D119" s="2">
         <v>8</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F119" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>36</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>36</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>37</v>
       </c>
@@ -2365,10 +2365,10 @@
         <v>9</v>
       </c>
       <c r="F123" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>37</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>37</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>37</v>
       </c>
@@ -2404,10 +2404,10 @@
         <v>9</v>
       </c>
       <c r="F126" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>37</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>37</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>37</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>38</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>38</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>38</v>
       </c>
@@ -2481,11 +2481,11 @@
       <c r="D132" s="2">
         <v>4</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F132" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>38</v>
       </c>
@@ -2494,11 +2494,11 @@
       <c r="D133" s="2">
         <v>4</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F133" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>38</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>38</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>38</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>38</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>39</v>
       </c>
@@ -2560,10 +2560,10 @@
         <v>4</v>
       </c>
       <c r="F138" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>39</v>
       </c>
@@ -2573,10 +2573,10 @@
         <v>4</v>
       </c>
       <c r="F139" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>39</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>39</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>40</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>42</v>
       </c>
@@ -2625,10 +2625,10 @@
         <v>14.23</v>
       </c>
       <c r="F143" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>43</v>
       </c>
@@ -2638,7 +2638,7 @@
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>44</v>
       </c>
@@ -2648,10 +2648,10 @@
         <v>10</v>
       </c>
       <c r="F145" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>45</v>
       </c>
@@ -2661,10 +2661,10 @@
         <v>10</v>
       </c>
       <c r="F146" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>46</v>
       </c>
@@ -2674,10 +2674,10 @@
         <v>9</v>
       </c>
       <c r="F147" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>47</v>
       </c>
@@ -2687,10 +2687,10 @@
         <v>8</v>
       </c>
       <c r="F148" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>48</v>
       </c>
@@ -2700,10 +2700,10 @@
         <v>10</v>
       </c>
       <c r="F149" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>49</v>
       </c>
@@ -2713,10 +2713,10 @@
         <v>10</v>
       </c>
       <c r="F150" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>50</v>
       </c>
@@ -2726,10 +2726,10 @@
         <v>9</v>
       </c>
       <c r="F151" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>51</v>
       </c>
@@ -2739,10 +2739,10 @@
         <v>7</v>
       </c>
       <c r="F152" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>52</v>
       </c>
@@ -2752,10 +2752,10 @@
         <v>9</v>
       </c>
       <c r="F153" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>53</v>
       </c>
@@ -2765,10 +2765,10 @@
         <v>9</v>
       </c>
       <c r="F154" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>54</v>
       </c>
@@ -2777,11 +2777,11 @@
       <c r="D155" s="2">
         <v>8</v>
       </c>
-      <c r="F155" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F155" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>55</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>56</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>57</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>58</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>59</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>60</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>61</v>
       </c>
@@ -2869,10 +2869,10 @@
         <v>11</v>
       </c>
       <c r="F162" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>62</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>63</v>
       </c>
@@ -2894,11 +2894,11 @@
       <c r="D164" s="2">
         <v>10</v>
       </c>
-      <c r="F164" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F164" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>64</v>
       </c>
@@ -2907,11 +2907,11 @@
       <c r="D165" s="2">
         <v>5</v>
       </c>
-      <c r="F165" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F165" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>137</v>
       </c>
@@ -2920,11 +2920,11 @@
       <c r="D166" s="2">
         <v>6</v>
       </c>
-      <c r="F166" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F166" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>65</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>66</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>67</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
         <v>68</v>
       </c>
@@ -2973,7 +2973,7 @@
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>69</v>
       </c>
@@ -2983,10 +2983,10 @@
         <v>9</v>
       </c>
       <c r="F171" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>70</v>
       </c>
@@ -2996,10 +2996,10 @@
         <v>8</v>
       </c>
       <c r="F172" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>71</v>
       </c>
@@ -3009,10 +3009,10 @@
         <v>6</v>
       </c>
       <c r="F173" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>72</v>
       </c>
@@ -3021,11 +3021,11 @@
       <c r="D174" s="2">
         <v>4</v>
       </c>
-      <c r="F174" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F174" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>73</v>
       </c>
@@ -3034,11 +3034,11 @@
       <c r="D175" s="2">
         <v>7</v>
       </c>
-      <c r="F175" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F175" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>74</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>75</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>76</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>77</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>78</v>
       </c>
@@ -3100,10 +3100,10 @@
         <v>5</v>
       </c>
       <c r="F180" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>79</v>
       </c>
@@ -3112,11 +3112,11 @@
       <c r="D181" s="2">
         <v>5</v>
       </c>
-      <c r="F181" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F181" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>80</v>
       </c>
@@ -3125,11 +3125,11 @@
       <c r="D182" s="2">
         <v>7</v>
       </c>
-      <c r="F182" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F182" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>81</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="7" t="s">
         <v>82</v>
       </c>
@@ -3152,7 +3152,7 @@
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>83</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>84</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>85</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>86</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>87</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>88</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>89</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
         <v>90</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>91</v>
       </c>
@@ -3263,10 +3263,10 @@
         <v>76</v>
       </c>
       <c r="F193" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>92</v>
       </c>
@@ -3275,11 +3275,11 @@
       <c r="D194" s="2">
         <v>80</v>
       </c>
-      <c r="F194" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F194" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>93</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>94</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="7" t="s">
         <v>95</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>96</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>97</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>98</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>99</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>100</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>101</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>102</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>103</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="8" t="s">
         <v>104</v>
       </c>
@@ -3429,7 +3429,7 @@
       <c r="E206" s="8"/>
       <c r="F206" s="8"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="7" t="s">
         <v>1</v>
       </c>
@@ -3439,7 +3439,7 @@
       <c r="E207" s="7"/>
       <c r="F207" s="7"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>20</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>138</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>105</v>
       </c>
@@ -3475,10 +3475,10 @@
         <v>9</v>
       </c>
       <c r="F210" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>105</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>105</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>13</v>
       </c>
@@ -3514,10 +3514,10 @@
         <v>9</v>
       </c>
       <c r="F213" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>13</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>13</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>8</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>8</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>8</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>106</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>9</v>
       </c>
@@ -3605,10 +3605,10 @@
         <v>9</v>
       </c>
       <c r="F220" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>9</v>
       </c>
@@ -3618,10 +3618,10 @@
         <v>9</v>
       </c>
       <c r="F221" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>9</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>107</v>
       </c>
@@ -3644,10 +3644,10 @@
         <v>9</v>
       </c>
       <c r="F223" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>107</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>107</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>107</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>107</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>108</v>
       </c>
@@ -3709,10 +3709,10 @@
         <v>9</v>
       </c>
       <c r="F228" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>109</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>110</v>
       </c>
@@ -3735,10 +3735,10 @@
         <v>9</v>
       </c>
       <c r="F230" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>111</v>
       </c>
@@ -3748,10 +3748,10 @@
         <v>9</v>
       </c>
       <c r="F231" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>111</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>112</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>113</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>114</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
         <v>14</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>21</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>22</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>22</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>22</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>23</v>
       </c>
@@ -3878,10 +3878,10 @@
         <v>9</v>
       </c>
       <c r="F241" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>23</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>24</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>24</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>24</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>25</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>25</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>115</v>
       </c>
@@ -3969,10 +3969,10 @@
         <v>10</v>
       </c>
       <c r="F248" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>116</v>
       </c>
@@ -3982,10 +3982,10 @@
         <v>9</v>
       </c>
       <c r="F249" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>29</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>28</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>28</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>28</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>28</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>28</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>28</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="s">
         <v>140</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="s">
         <v>140</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="5" t="s">
         <v>141</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>117</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>118</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>118</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>118</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>118</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>118</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>118</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>119</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>119</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>119</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>119</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>119</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>120</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>120</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>120</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>120</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>120</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>121</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>121</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>121</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>121</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>42</v>
       </c>
@@ -4398,10 +4398,10 @@
         <v>8.44</v>
       </c>
       <c r="F281" s="2">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="7" t="s">
         <v>43</v>
       </c>
@@ -4411,7 +4411,7 @@
       <c r="E282" s="7"/>
       <c r="F282" s="7"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>122</v>
       </c>
@@ -4421,10 +4421,10 @@
         <v>18</v>
       </c>
       <c r="F283" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>123</v>
       </c>
@@ -4434,10 +4434,10 @@
         <v>18</v>
       </c>
       <c r="F284" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>124</v>
       </c>
@@ -4447,10 +4447,10 @@
         <v>18</v>
       </c>
       <c r="F285" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>125</v>
       </c>
@@ -4460,10 +4460,10 @@
         <v>18</v>
       </c>
       <c r="F286" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>126</v>
       </c>
@@ -4473,10 +4473,10 @@
         <v>18</v>
       </c>
       <c r="F287" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>54</v>
       </c>
@@ -4486,10 +4486,10 @@
         <v>18</v>
       </c>
       <c r="F288" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>127</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>128</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>129</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>130</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>131</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>143</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="7" t="s">
         <v>90</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="E295" s="7"/>
       <c r="F295" s="7"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>133</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="4" t="s">
         <v>139</v>
       </c>
@@ -4601,32 +4601,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D298" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D299" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D300" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D301" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D302" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>134</v>
       </c>
@@ -4634,22 +4634,22 @@
         <v>132</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D304" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D305" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D306" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>135</v>
       </c>
@@ -4657,22 +4657,22 @@
         <v>132</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D308" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D309" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D310" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>136</v>
       </c>

--- a/CoC.xlsx
+++ b/CoC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de7ad4112e8cf2db/Документы/GitHub/coc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Serg\Программирование\Git\CoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{1EA328D9-343A-4A45-8775-D890CF05FA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86F13BBC-B915-416F-BA7E-A80022693BED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E771C3D-FE0A-4B9A-A6C8-0B575A41BF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="145">
   <si>
     <t>Родная деревня</t>
   </si>
@@ -452,6 +452,9 @@
   </si>
   <si>
     <t>огневержец</t>
+  </si>
+  <si>
+    <t>ученик хранителя</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -546,6 +549,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -767,15 +772,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F311"/>
+  <dimension ref="A1:F313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="164" workbookViewId="0">
-      <selection activeCell="C294" sqref="C294"/>
+    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D304" sqref="D304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -785,7 +790,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -795,7 +800,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -808,72 +813,72 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -886,7 +891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -899,7 +904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,11 +913,11 @@
       <c r="D11" s="2">
         <v>19</v>
       </c>
-      <c r="F11" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -921,50 +926,50 @@
       <c r="D12" s="2">
         <v>19</v>
       </c>
-      <c r="F12" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="2">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2">
-        <v>19</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -974,10 +979,10 @@
         <v>20</v>
       </c>
       <c r="F16" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,10 +992,10 @@
         <v>20</v>
       </c>
       <c r="F17" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -999,11 +1004,11 @@
       <c r="D18" s="2">
         <v>20</v>
       </c>
-      <c r="F18" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,11 +1017,11 @@
       <c r="D19" s="2">
         <v>20</v>
       </c>
-      <c r="F19" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1025,50 +1030,50 @@
       <c r="D20" s="2">
         <v>20</v>
       </c>
-      <c r="F20" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2">
-        <v>20</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2">
-        <v>20</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2">
-        <v>20</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1078,10 +1083,10 @@
         <v>14</v>
       </c>
       <c r="F24" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1090,50 +1095,50 @@
       <c r="D25" s="2">
         <v>14</v>
       </c>
-      <c r="F25" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F25" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F26" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F27" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2">
-        <v>14</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -1146,46 +1151,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="2">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F30" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="2">
+        <v>14</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F31" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F32" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
@@ -1195,49 +1200,49 @@
         <v>14</v>
       </c>
       <c r="F33" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,10 +1252,10 @@
         <v>13</v>
       </c>
       <c r="F37" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -1259,50 +1264,50 @@
       <c r="D38" s="2">
         <v>13</v>
       </c>
-      <c r="F38" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F38" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F39" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F40" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,180 +1316,180 @@
       <c r="D42" s="2">
         <v>9</v>
       </c>
-      <c r="F42" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F42" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2">
-        <v>9</v>
-      </c>
-      <c r="F43" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="2">
-        <v>8</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F46" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="2">
-        <v>8</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F47" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F49" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="2">
-        <v>7</v>
-      </c>
-      <c r="F50" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="2">
-        <v>9</v>
-      </c>
-      <c r="F52" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F52" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -1510,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>20</v>
       </c>
@@ -1523,33 +1528,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F60" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
@@ -1562,7 +1567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>22</v>
       </c>
@@ -1575,7 +1580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>22</v>
       </c>
@@ -1588,7 +1593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
@@ -1601,7 +1606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>22</v>
       </c>
@@ -1614,7 +1619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>22</v>
       </c>
@@ -1627,7 +1632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>22</v>
       </c>
@@ -1640,7 +1645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>22</v>
       </c>
@@ -1653,7 +1658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>23</v>
       </c>
@@ -1666,7 +1671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>23</v>
       </c>
@@ -1679,7 +1684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>23</v>
       </c>
@@ -1692,7 +1697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>23</v>
       </c>
@@ -1705,7 +1710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>24</v>
       </c>
@@ -1718,7 +1723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>24</v>
       </c>
@@ -1731,7 +1736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,7 +1749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
@@ -1757,7 +1762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>24</v>
       </c>
@@ -1770,7 +1775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>24</v>
       </c>
@@ -1783,7 +1788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>24</v>
       </c>
@@ -1796,7 +1801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>25</v>
       </c>
@@ -1809,7 +1814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>25</v>
       </c>
@@ -1822,7 +1827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>25</v>
       </c>
@@ -1835,7 +1840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>25</v>
       </c>
@@ -1848,7 +1853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>26</v>
       </c>
@@ -1861,7 +1866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>26</v>
       </c>
@@ -1874,7 +1879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>26</v>
       </c>
@@ -1887,20 +1892,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F87" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>28</v>
       </c>
@@ -1913,7 +1918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>28</v>
       </c>
@@ -1926,7 +1931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>28</v>
       </c>
@@ -1939,7 +1944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>28</v>
       </c>
@@ -1952,7 +1957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>29</v>
       </c>
@@ -1965,20 +1970,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F93" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>31</v>
       </c>
@@ -1991,20 +1996,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F95" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>33</v>
       </c>
@@ -2017,7 +2022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>34</v>
       </c>
@@ -2030,20 +2035,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,7 +2061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>35</v>
       </c>
@@ -2069,7 +2074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>35</v>
       </c>
@@ -2082,7 +2087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>35</v>
       </c>
@@ -2095,7 +2100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>35</v>
       </c>
@@ -2108,7 +2113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>35</v>
       </c>
@@ -2121,7 +2126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>35</v>
       </c>
@@ -2134,7 +2139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,7 +2152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>142</v>
       </c>
@@ -2160,7 +2165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>142</v>
       </c>
@@ -2173,7 +2178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>142</v>
       </c>
@@ -2186,7 +2191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>142</v>
       </c>
@@ -2199,7 +2204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>142</v>
       </c>
@@ -2212,7 +2217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>142</v>
       </c>
@@ -2225,7 +2230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>142</v>
       </c>
@@ -2238,7 +2243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>142</v>
       </c>
@@ -2251,7 +2256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>142</v>
       </c>
@@ -2264,7 +2269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>36</v>
       </c>
@@ -2277,7 +2282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,7 +2295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>36</v>
       </c>
@@ -2303,7 +2308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>36</v>
       </c>
@@ -2316,7 +2321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>36</v>
       </c>
@@ -2329,7 +2334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,7 +2347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>36</v>
       </c>
@@ -2355,7 +2360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>37</v>
       </c>
@@ -2368,7 +2373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>37</v>
       </c>
@@ -2381,7 +2386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>37</v>
       </c>
@@ -2394,7 +2399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>37</v>
       </c>
@@ -2407,7 +2412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>37</v>
       </c>
@@ -2420,7 +2425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>37</v>
       </c>
@@ -2433,7 +2438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>37</v>
       </c>
@@ -2446,20 +2451,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F130" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>38</v>
       </c>
@@ -2472,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>38</v>
       </c>
@@ -2485,7 +2490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>38</v>
       </c>
@@ -2498,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>38</v>
       </c>
@@ -2511,7 +2516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>38</v>
       </c>
@@ -2524,7 +2529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>38</v>
       </c>
@@ -2537,7 +2542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>38</v>
       </c>
@@ -2550,7 +2555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>39</v>
       </c>
@@ -2563,7 +2568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>39</v>
       </c>
@@ -2576,7 +2581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>39</v>
       </c>
@@ -2589,7 +2594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>39</v>
       </c>
@@ -2602,7 +2607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>40</v>
       </c>
@@ -2615,20 +2620,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="2">
-        <v>14.23</v>
+        <v>14.44</v>
       </c>
       <c r="F143" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>43</v>
       </c>
@@ -2638,7 +2643,7 @@
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>44</v>
       </c>
@@ -2651,20 +2656,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>46</v>
       </c>
@@ -2677,7 +2682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>47</v>
       </c>
@@ -2690,7 +2695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>48</v>
       </c>
@@ -2703,7 +2708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>49</v>
       </c>
@@ -2716,7 +2721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>50</v>
       </c>
@@ -2729,7 +2734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>51</v>
       </c>
@@ -2742,7 +2747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>52</v>
       </c>
@@ -2755,7 +2760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>53</v>
       </c>
@@ -2768,7 +2773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>54</v>
       </c>
@@ -2781,7 +2786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>55</v>
       </c>
@@ -2794,20 +2799,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>57</v>
       </c>
@@ -2820,7 +2825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>58</v>
       </c>
@@ -2833,7 +2838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>59</v>
       </c>
@@ -2846,7 +2851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>60</v>
       </c>
@@ -2859,7 +2864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>61</v>
       </c>
@@ -2872,7 +2877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>62</v>
       </c>
@@ -2885,20 +2890,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>64</v>
       </c>
@@ -2911,7 +2916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>137</v>
       </c>
@@ -2924,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>65</v>
       </c>
@@ -2937,7 +2942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>66</v>
       </c>
@@ -2950,7 +2955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>67</v>
       </c>
@@ -2963,149 +2968,149 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A170" s="7" t="s">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="2">
+        <v>1</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B170" s="7"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A171" s="1" t="s">
+      <c r="B171" s="7"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="2">
-        <v>9</v>
-      </c>
-      <c r="F171" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A172" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F172" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F173" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F174" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F175" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="2">
         <v>7</v>
       </c>
-      <c r="F176" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F176" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="2">
-        <v>7</v>
-      </c>
-      <c r="F179" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F180" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -3113,61 +3118,61 @@
         <v>5</v>
       </c>
       <c r="F181" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F182" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="2">
+        <v>7</v>
+      </c>
+      <c r="F183" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="2">
         <v>5</v>
       </c>
-      <c r="F183" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A184" s="7" t="s">
+      <c r="F184" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B184" s="7"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="7"/>
-      <c r="E184" s="7"/>
-      <c r="F184" s="7"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A185" s="1" t="s">
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="2">
-        <v>2</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A186" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -3178,35 +3183,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -3217,146 +3222,146 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
-      <c r="D191" s="2" t="s">
-        <v>4</v>
+      <c r="D191" s="2">
+        <v>2</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A192" s="7" t="s">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B192" s="7"/>
-      <c r="C192" s="7"/>
-      <c r="D192" s="7"/>
-      <c r="E192" s="7"/>
-      <c r="F192" s="7"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A193" s="1" t="s">
+      <c r="B193" s="7"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="2">
-        <v>76</v>
-      </c>
-      <c r="F193" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F194" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="2">
-        <v>56</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="F195" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="2">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A197" s="7" t="s">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="2">
+        <v>30</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B197" s="7"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="7"/>
-      <c r="E197" s="7"/>
-      <c r="F197" s="7"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A198" s="1" t="s">
+      <c r="B198" s="7"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="2">
-        <v>10</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A199" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -3367,35 +3372,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
-      <c r="D202" s="2" t="s">
-        <v>4</v>
+      <c r="D202" s="2">
+        <v>10</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
-      <c r="D203" s="2" t="s">
-        <v>4</v>
+      <c r="D203" s="2">
+        <v>3</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -3406,9 +3411,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -3419,66 +3424,66 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A206" s="8" t="s">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B206" s="8"/>
-      <c r="C206" s="8"/>
-      <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="8"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A207" s="7" t="s">
+      <c r="B207" s="8"/>
+      <c r="C207" s="8"/>
+      <c r="D207" s="8"/>
+      <c r="E207" s="8"/>
+      <c r="F207" s="8"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B207" s="7"/>
-      <c r="C207" s="7"/>
-      <c r="D207" s="7"/>
-      <c r="E207" s="7"/>
-      <c r="F207" s="7"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A208" s="1" t="s">
+      <c r="B208" s="7"/>
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+      <c r="E208" s="7"/>
+      <c r="F208" s="7"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="2">
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="2">
         <v>10</v>
       </c>
-      <c r="F208" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A209" s="3" t="s">
+      <c r="F209" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="2">
-        <v>7</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A210" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
       <c r="D210" s="2">
-        <v>9</v>
-      </c>
-      <c r="F210" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>105</v>
       </c>
@@ -3487,11 +3492,11 @@
       <c r="D211" s="2">
         <v>9</v>
       </c>
-      <c r="F211" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F211" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>105</v>
       </c>
@@ -3504,20 +3509,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="2">
         <v>9</v>
       </c>
-      <c r="F213" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F213" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>13</v>
       </c>
@@ -3526,11 +3531,11 @@
       <c r="D214" s="2">
         <v>9</v>
       </c>
-      <c r="F214" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F214" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>13</v>
       </c>
@@ -3543,20 +3548,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="2">
         <v>9</v>
       </c>
-      <c r="F216" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F216" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>8</v>
       </c>
@@ -3569,7 +3574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>8</v>
       </c>
@@ -3578,13 +3583,13 @@
       <c r="D218" s="2">
         <v>9</v>
       </c>
-      <c r="F218" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F218" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -3595,20 +3600,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="2">
         <v>9</v>
       </c>
-      <c r="F220" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F220" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>9</v>
       </c>
@@ -3621,7 +3626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>9</v>
       </c>
@@ -3630,24 +3635,24 @@
       <c r="D222" s="2">
         <v>9</v>
       </c>
-      <c r="F222" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F222" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="2">
         <v>9</v>
       </c>
-      <c r="F223" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F223" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>107</v>
       </c>
@@ -3656,11 +3661,11 @@
       <c r="D224" s="2">
         <v>9</v>
       </c>
-      <c r="F224" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F224" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>107</v>
       </c>
@@ -3673,7 +3678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>107</v>
       </c>
@@ -3686,7 +3691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>107</v>
       </c>
@@ -3699,59 +3704,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="2">
         <v>9</v>
       </c>
-      <c r="F228" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F228" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="2">
         <v>9</v>
       </c>
-      <c r="F229" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F229" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="2">
         <v>9</v>
       </c>
-      <c r="F230" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F230" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F231" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>111</v>
       </c>
@@ -3760,13 +3765,13 @@
       <c r="D232" s="2">
         <v>9</v>
       </c>
-      <c r="F232" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F232" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -3777,9 +3782,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -3790,9 +3795,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -3803,59 +3808,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A236" s="3" t="s">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="2">
+        <v>10</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B236" s="3"/>
-      <c r="C236" s="3"/>
-      <c r="D236" s="2">
-        <v>1</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A237" s="1" t="s">
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="2">
+        <v>2</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="2">
-        <v>5</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A238" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="2">
-        <v>9</v>
-      </c>
-      <c r="F238" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="2">
-        <v>10</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="F239" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>22</v>
       </c>
@@ -3868,59 +3873,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="2">
-        <v>9</v>
-      </c>
-      <c r="F241" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="2">
-        <v>9</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="F242" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="2">
-        <v>9</v>
-      </c>
-      <c r="F243" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="2">
-        <v>9</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="F244" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>24</v>
       </c>
@@ -3933,85 +3938,85 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="2">
-        <v>9</v>
-      </c>
-      <c r="F246" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="2">
-        <v>9</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="F247" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="2">
         <v>10</v>
       </c>
-      <c r="F248" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F248" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F249" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F250" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F251" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>28</v>
       </c>
@@ -4024,7 +4029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>28</v>
       </c>
@@ -4037,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>28</v>
       </c>
@@ -4050,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>28</v>
       </c>
@@ -4059,11 +4064,11 @@
       <c r="D255" s="2">
         <v>1</v>
       </c>
-      <c r="F255" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F255" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>28</v>
       </c>
@@ -4076,9 +4081,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A257" s="4" t="s">
-        <v>140</v>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -4089,59 +4094,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
-      <c r="D258" s="6">
+      <c r="D258" s="2">
         <v>1</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A259" s="5" t="s">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="6">
+        <v>1</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B259" s="3"/>
-      <c r="C259" s="3"/>
-      <c r="D259" s="6">
-        <v>5</v>
-      </c>
-      <c r="F259" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A260" s="1" t="s">
+      <c r="B260" s="3"/>
+      <c r="C260" s="3"/>
+      <c r="D260" s="6">
+        <v>6</v>
+      </c>
+      <c r="F260" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="2">
-        <v>10</v>
-      </c>
-      <c r="F260" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A261" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F261" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>118</v>
       </c>
@@ -4154,7 +4159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>118</v>
       </c>
@@ -4163,11 +4168,11 @@
       <c r="D263" s="2">
         <v>4</v>
       </c>
-      <c r="F263" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F263" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>118</v>
       </c>
@@ -4180,7 +4185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>118</v>
       </c>
@@ -4193,7 +4198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>118</v>
       </c>
@@ -4206,33 +4211,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="2">
-        <v>9</v>
-      </c>
-      <c r="F267" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F268" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>119</v>
       </c>
@@ -4245,7 +4250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>119</v>
       </c>
@@ -4254,11 +4259,11 @@
       <c r="D270" s="2">
         <v>9</v>
       </c>
-      <c r="F270" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F270" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>119</v>
       </c>
@@ -4271,20 +4276,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="2">
         <v>9</v>
       </c>
-      <c r="F272" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F272" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>120</v>
       </c>
@@ -4297,7 +4302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>120</v>
       </c>
@@ -4310,7 +4315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>120</v>
       </c>
@@ -4319,11 +4324,11 @@
       <c r="D275" s="2">
         <v>9</v>
       </c>
-      <c r="F275" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F275" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>120</v>
       </c>
@@ -4332,37 +4337,37 @@
       <c r="D276" s="2">
         <v>9</v>
       </c>
-      <c r="F276" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F276" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="2">
         <v>9</v>
       </c>
-      <c r="F277" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A278" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
+      <c r="F277" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B278" s="3"/>
+      <c r="C278" s="3"/>
       <c r="D278" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>121</v>
       </c>
@@ -4371,11 +4376,11 @@
       <c r="D279" s="2">
         <v>9</v>
       </c>
-      <c r="F279" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F279" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>121</v>
       </c>
@@ -4388,71 +4393,71 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="2">
-        <v>8.44</v>
-      </c>
-      <c r="F281" s="2">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A282" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B282" s="7"/>
-      <c r="C282" s="7"/>
-      <c r="D282" s="7"/>
-      <c r="E282" s="7"/>
-      <c r="F282" s="7"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="2">
+        <v>9</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="2">
-        <v>18</v>
+        <v>8.65</v>
       </c>
       <c r="F283" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A284" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
-      <c r="D284" s="2">
-        <v>18</v>
-      </c>
-      <c r="F284" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B284" s="7"/>
+      <c r="C284" s="7"/>
+      <c r="D284" s="7"/>
+      <c r="E284" s="7"/>
+      <c r="F284" s="7"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F285" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -4460,12 +4465,12 @@
         <v>18</v>
       </c>
       <c r="F286" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -4473,12 +4478,12 @@
         <v>18</v>
       </c>
       <c r="F287" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -4486,38 +4491,38 @@
         <v>18</v>
       </c>
       <c r="F288" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="2">
-        <v>18</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="F289" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="2">
         <v>18</v>
       </c>
-      <c r="F290" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F290" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -4528,9 +4533,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -4541,9 +4546,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -4554,145 +4559,171 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="2">
+        <v>20</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="2">
+        <v>18</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
         <v>143</v>
       </c>
-      <c r="D294" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A295" s="7" t="s">
+      <c r="D296" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B295" s="7"/>
-      <c r="C295" s="7"/>
-      <c r="D295" s="7"/>
-      <c r="E295" s="7"/>
-      <c r="F295" s="7"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A296" s="1" t="s">
+      <c r="B297" s="7"/>
+      <c r="C297" s="7"/>
+      <c r="D297" s="7"/>
+      <c r="E297" s="7"/>
+      <c r="F297" s="7"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B296" s="1"/>
-      <c r="C296" s="1"/>
-      <c r="D296" s="2">
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="2">
         <v>30</v>
       </c>
-      <c r="F296" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A297" s="4" t="s">
+      <c r="F298" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B297" s="1"/>
-      <c r="C297" s="1"/>
-      <c r="D297" s="2">
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="2">
         <v>16</v>
       </c>
-      <c r="F297" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D298" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D299" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F299" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D300" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D301" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D302" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A303" t="s">
-        <v>134</v>
-      </c>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D303" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D304" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>134</v>
+      </c>
       <c r="D305" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D306" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A307" t="s">
-        <v>135</v>
-      </c>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D307" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D308" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>135</v>
+      </c>
       <c r="D309" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D310" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A311" t="s">
-        <v>136</v>
-      </c>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D311" s="2" t="s">
         <v>132</v>
       </c>
     </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D312" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>136</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A295:F295"/>
+    <mergeCell ref="A297:F297"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A144:F144"/>
-    <mergeCell ref="A170:F170"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="A192:F192"/>
-    <mergeCell ref="A197:F197"/>
-    <mergeCell ref="A206:F206"/>
+    <mergeCell ref="A171:F171"/>
+    <mergeCell ref="A185:F185"/>
+    <mergeCell ref="A193:F193"/>
+    <mergeCell ref="A198:F198"/>
     <mergeCell ref="A207:F207"/>
-    <mergeCell ref="A282:F282"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A284:F284"/>
   </mergeCells>
   <pageMargins left="0.70000004768371604" right="0.70000004768371604" top="0.75" bottom="0.75" header="0.30000001192092901" footer="0.30000001192092901"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/CoC.xlsx
+++ b/CoC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Serg\Программирование\Git\CoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E771C3D-FE0A-4B9A-A6C8-0B575A41BF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0C8FC8-2651-440E-B391-A152B36DE659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="146">
   <si>
     <t>Родная деревня</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>ученик хранителя</t>
+  </si>
+  <si>
+    <t>база Б.О.Б.О.</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -549,8 +552,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -774,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D304" sqref="D304"/>
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D299" sqref="D299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,7 +821,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
@@ -1392,7 +1393,7 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>4</v>
@@ -1665,7 +1666,7 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F69" s="2">
         <v>11</v>
@@ -1678,7 +1679,7 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F70" s="2">
         <v>11</v>
@@ -1691,7 +1692,7 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F71" s="2">
         <v>11</v>
@@ -1704,7 +1705,7 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F72" s="2">
         <v>11</v>
@@ -1808,7 +1809,7 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F80" s="2">
         <v>11</v>
@@ -1821,7 +1822,7 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F81" s="2">
         <v>11</v>
@@ -1834,7 +1835,7 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F82" s="2">
         <v>11</v>
@@ -1847,7 +1848,7 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F83" s="2">
         <v>11</v>
@@ -2029,7 +2030,7 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>4</v>
@@ -2042,7 +2043,7 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>4</v>
@@ -2627,7 +2628,7 @@
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="2">
-        <v>14.44</v>
+        <v>14.62</v>
       </c>
       <c r="F143" s="2">
         <v>10</v>
@@ -2650,7 +2651,7 @@
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" s="2">
         <v>6</v>
@@ -2689,7 +2690,7 @@
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F148" s="2">
         <v>5</v>
@@ -2845,7 +2846,7 @@
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>4</v>
@@ -2969,11 +2970,9 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="10" t="s">
+      <c r="A170" t="s">
         <v>144</v>
       </c>
-      <c r="B170" s="9"/>
-      <c r="C170" s="9"/>
       <c r="D170" s="2">
         <v>1</v>
       </c>
@@ -3154,7 +3153,7 @@
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>4</v>
@@ -3177,7 +3176,7 @@
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>4</v>
@@ -3254,8 +3253,8 @@
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
-      <c r="D192" s="2" t="s">
-        <v>4</v>
+      <c r="D192" s="2">
+        <v>1</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>4</v>
@@ -3278,7 +3277,7 @@
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F194" s="2">
         <v>22</v>
@@ -3340,7 +3339,7 @@
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>4</v>
@@ -3392,7 +3391,7 @@
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>4</v>
@@ -3404,8 +3403,8 @@
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
-      <c r="D204" s="2" t="s">
-        <v>4</v>
+      <c r="D204" s="2">
+        <v>1</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>4</v>
@@ -3477,7 +3476,7 @@
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>4</v>
@@ -3737,7 +3736,7 @@
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>4</v>
@@ -3828,7 +3827,7 @@
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>4</v>
@@ -3836,14 +3835,14 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="2">
-        <v>5</v>
-      </c>
-      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F238" s="2">
         <v>4</v>
       </c>
     </row>
@@ -3854,9 +3853,9 @@
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="2">
-        <v>9</v>
-      </c>
-      <c r="F239" s="2">
+        <v>10</v>
+      </c>
+      <c r="F239" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3875,14 +3874,14 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="2">
         <v>10</v>
       </c>
-      <c r="F241" s="2" t="s">
+      <c r="F241" s="2">
         <v>4</v>
       </c>
     </row>
@@ -3895,20 +3894,20 @@
       <c r="D242" s="2">
         <v>10</v>
       </c>
-      <c r="F242" s="2">
+      <c r="F242" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="2">
         <v>10</v>
       </c>
-      <c r="F243" s="2" t="s">
+      <c r="F243" s="2">
         <v>4</v>
       </c>
     </row>
@@ -3921,7 +3920,7 @@
       <c r="D244" s="2">
         <v>10</v>
       </c>
-      <c r="F244" s="2">
+      <c r="F244" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3940,14 +3939,14 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="2">
         <v>10</v>
       </c>
-      <c r="F246" s="2" t="s">
+      <c r="F246" s="2">
         <v>4</v>
       </c>
     </row>
@@ -3960,31 +3959,31 @@
       <c r="D247" s="2">
         <v>10</v>
       </c>
-      <c r="F247" s="2">
+      <c r="F247" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="2">
         <v>10</v>
       </c>
-      <c r="F248" s="2" t="s">
+      <c r="F248" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F249" s="2">
         <v>4</v>
@@ -3992,14 +3991,14 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="2">
-        <v>9</v>
-      </c>
-      <c r="F250" s="2">
+        <v>5</v>
+      </c>
+      <c r="F250" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4010,7 +4009,7 @@
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F251" s="2">
         <v>6</v>
@@ -4095,15 +4094,15 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A258" s="4" t="s">
-        <v>140</v>
+      <c r="A258" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="2">
-        <v>1</v>
-      </c>
-      <c r="F258" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F258" s="2">
         <v>4</v>
       </c>
     </row>
@@ -4113,7 +4112,7 @@
       </c>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
-      <c r="D259" s="6">
+      <c r="D259" s="2">
         <v>1</v>
       </c>
       <c r="F259" s="2" t="s">
@@ -4121,28 +4120,28 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A260" s="5" t="s">
+      <c r="A260" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="6">
+        <v>1</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B260" s="3"/>
-      <c r="C260" s="3"/>
-      <c r="D260" s="6">
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="6">
         <v>6</v>
       </c>
-      <c r="F260" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
-      <c r="D261" s="2">
-        <v>10</v>
-      </c>
-      <c r="F261" s="2">
+      <c r="F261" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4244,7 +4243,7 @@
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F269" s="2">
         <v>4</v>
@@ -4361,7 +4360,7 @@
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
       <c r="D278" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>4</v>
@@ -4426,7 +4425,7 @@
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="2">
-        <v>8.65</v>
+        <v>8.69</v>
       </c>
       <c r="F283" s="2">
         <v>3.33</v>
@@ -4462,7 +4461,7 @@
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F286" s="2">
         <v>7</v>
@@ -4514,7 +4513,7 @@
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F290" s="2">
         <v>5</v>
@@ -4589,8 +4588,8 @@
       <c r="A296" t="s">
         <v>143</v>
       </c>
-      <c r="D296" s="2" t="s">
-        <v>4</v>
+      <c r="D296" s="2">
+        <v>20</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>4</v>

--- a/CoC.xlsx
+++ b/CoC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Serg\Программирование\Git\CoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0C8FC8-2651-440E-B391-A152B36DE659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8FD12E-D77E-49E1-8DBB-18498C49A465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="148">
   <si>
     <t>Родная деревня</t>
   </si>
@@ -85,9 +85,6 @@
     <t>дом строителя</t>
   </si>
   <si>
-    <t>хижина отто</t>
-  </si>
-  <si>
     <t>сборщик эликсира</t>
   </si>
   <si>
@@ -458,6 +455,15 @@
   </si>
   <si>
     <t>база Б.О.Б.О.</t>
+  </si>
+  <si>
+    <t>хижина Б.О.Б.О</t>
+  </si>
+  <si>
+    <t>лесная всадница</t>
+  </si>
+  <si>
+    <t>призрачная лиса</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -552,6 +558,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -773,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F313"/>
+  <dimension ref="A1:F315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D299" sqref="D299"/>
+    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D303" sqref="D303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,7 +829,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
@@ -1042,7 +1050,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" s="2">
         <v>7</v>
@@ -1055,7 +1063,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" s="2">
         <v>7</v>
@@ -1068,7 +1076,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F23" s="2">
         <v>7</v>
@@ -1107,7 +1115,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" s="2">
         <v>7</v>
@@ -1120,7 +1128,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F27" s="2">
         <v>7</v>
@@ -1133,7 +1141,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F28" s="2">
         <v>7</v>
@@ -1146,7 +1154,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" s="2">
         <v>7</v>
@@ -1211,7 +1219,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F34" s="2">
         <v>7</v>
@@ -1276,7 +1284,7 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F39" s="2">
         <v>3</v>
@@ -1289,7 +1297,7 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F40" s="2">
         <v>3</v>
@@ -1302,7 +1310,7 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>4</v>
@@ -1315,7 +1323,7 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>4</v>
@@ -1328,7 +1336,7 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>4</v>
@@ -1341,7 +1349,7 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>4</v>
@@ -1354,7 +1362,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>4</v>
@@ -1406,7 +1414,7 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F49" s="2">
         <v>3</v>
@@ -1419,7 +1427,7 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>4</v>
@@ -1432,7 +1440,7 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>4</v>
@@ -1445,7 +1453,7 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>4</v>
@@ -1458,7 +1466,7 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>4</v>
@@ -1471,7 +1479,7 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>4</v>
@@ -1484,7 +1492,7 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>4</v>
@@ -1557,7 +1565,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1570,7 +1578,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1583,7 +1591,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1596,7 +1604,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1609,7 +1617,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1622,7 +1630,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1635,7 +1643,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1648,7 +1656,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1661,7 +1669,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1674,7 +1682,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1687,7 +1695,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1700,7 +1708,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1713,7 +1721,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1726,7 +1734,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1739,7 +1747,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1752,7 +1760,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1765,7 +1773,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1778,7 +1786,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1791,7 +1799,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1804,7 +1812,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1817,7 +1825,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1830,7 +1838,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1843,7 +1851,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1856,7 +1864,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1869,7 +1877,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1882,7 +1890,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1895,7 +1903,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1908,12 +1916,12 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" s="2">
         <v>7</v>
@@ -1921,12 +1929,12 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" s="2">
         <v>7</v>
@@ -1934,12 +1942,12 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" s="2">
         <v>7</v>
@@ -1947,12 +1955,12 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" s="2">
         <v>7</v>
@@ -1960,7 +1968,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1973,7 +1981,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1986,7 +1994,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1999,7 +2007,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2012,7 +2020,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2025,7 +2033,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2038,12 +2046,12 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>4</v>
@@ -2051,12 +2059,12 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" s="2">
         <v>6</v>
@@ -2064,12 +2072,12 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" s="2">
         <v>6</v>
@@ -2077,12 +2085,12 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" s="2">
         <v>5</v>
@@ -2090,12 +2098,12 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" s="2">
         <v>5</v>
@@ -2103,7 +2111,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2116,7 +2124,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2129,7 +2137,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2142,7 +2150,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2155,7 +2163,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2168,7 +2176,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2181,7 +2189,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2194,7 +2202,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2207,7 +2215,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2220,7 +2228,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2233,7 +2241,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2246,7 +2254,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2259,7 +2267,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2272,7 +2280,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2285,7 +2293,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2298,7 +2306,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2311,7 +2319,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -2324,7 +2332,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -2337,7 +2345,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2350,7 +2358,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2363,7 +2371,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2376,12 +2384,12 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F124" s="2">
         <v>3</v>
@@ -2389,7 +2397,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2402,7 +2410,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2415,7 +2423,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -2428,7 +2436,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2441,7 +2449,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2454,7 +2462,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2467,7 +2475,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2480,7 +2488,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2493,7 +2501,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2506,7 +2514,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -2519,7 +2527,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2532,7 +2540,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2545,7 +2553,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2558,7 +2566,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2571,7 +2579,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -2584,7 +2592,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -2597,7 +2605,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -2610,7 +2618,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -2623,12 +2631,12 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="2">
-        <v>14.62</v>
+        <v>14.89</v>
       </c>
       <c r="F143" s="2">
         <v>10</v>
@@ -2636,7 +2644,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -2646,7 +2654,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -2659,7 +2667,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -2672,12 +2680,12 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F147" s="2">
         <v>5</v>
@@ -2685,7 +2693,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -2698,7 +2706,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -2711,7 +2719,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -2724,12 +2732,12 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F151" s="2">
         <v>6</v>
@@ -2737,7 +2745,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -2750,7 +2758,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -2763,7 +2771,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -2776,7 +2784,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -2789,7 +2797,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -2802,7 +2810,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -2815,7 +2823,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -2828,7 +2836,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -2841,7 +2849,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -2853,26 +2861,26 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="2">
-        <v>9</v>
-      </c>
-      <c r="F161" s="2">
-        <v>3</v>
+      <c r="A161" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F162" s="2">
         <v>3</v>
@@ -2880,77 +2888,77 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F163" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F164" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F165" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F166" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="2">
-        <v>5</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="F167" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>4</v>
@@ -2958,72 +2966,72 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="2">
+        <v>6</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="2">
         <v>3</v>
       </c>
-      <c r="F169" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>144</v>
-      </c>
-      <c r="D170" s="2">
+      <c r="F170" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>143</v>
+      </c>
+      <c r="D171" s="2">
         <v>1</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B171" s="7"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
+      <c r="F171" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="2">
-        <v>9</v>
-      </c>
-      <c r="F172" s="2">
-        <v>6</v>
-      </c>
+      <c r="A172" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F173" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F174" s="2">
         <v>5</v>
@@ -3031,51 +3039,51 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F175" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F176" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="2">
         <v>7</v>
       </c>
-      <c r="F177" s="2" t="s">
-        <v>4</v>
+      <c r="F177" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>4</v>
@@ -3083,12 +3091,12 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>4</v>
@@ -3096,33 +3104,33 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="2">
-        <v>7</v>
-      </c>
-      <c r="F180" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F181" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -3130,17 +3138,17 @@
         <v>5</v>
       </c>
       <c r="F182" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F183" s="2">
         <v>1</v>
@@ -3148,48 +3156,48 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="2">
+        <v>7</v>
+      </c>
+      <c r="F184" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="2">
         <v>6</v>
       </c>
-      <c r="F184" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B185" s="7"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
+      <c r="F185" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="2">
-        <v>3</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A186" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B186" s="7"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>4</v>
@@ -3197,12 +3205,12 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>4</v>
@@ -3210,12 +3218,12 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>4</v>
@@ -3223,12 +3231,12 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>4</v>
@@ -3236,12 +3244,12 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>4</v>
@@ -3249,110 +3257,110 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B193" s="7"/>
-      <c r="C193" s="7"/>
-      <c r="D193" s="7"/>
-      <c r="E193" s="7"/>
-      <c r="F193" s="7"/>
+      <c r="A193" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="2">
+        <v>3</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="2">
-        <v>79</v>
-      </c>
-      <c r="F194" s="2">
-        <v>22</v>
-      </c>
+      <c r="A194" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F195" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="2">
-        <v>57</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>4</v>
+        <v>81</v>
+      </c>
+      <c r="F196" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B198" s="7"/>
-      <c r="C198" s="7"/>
-      <c r="D198" s="7"/>
-      <c r="E198" s="7"/>
-      <c r="F198" s="7"/>
+      <c r="A198" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="2">
+        <v>35</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="2">
-        <v>11</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A199" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B199" s="7"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>4</v>
@@ -3360,7 +3368,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -3373,7 +3381,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -3386,12 +3394,12 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>4</v>
@@ -3399,12 +3407,12 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>4</v>
@@ -3412,11 +3420,11 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
-      <c r="D205" s="2" t="s">
+      <c r="D205" s="2">
         <v>4</v>
       </c>
       <c r="F205" s="2" t="s">
@@ -3425,84 +3433,84 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
-      <c r="D206" s="2" t="s">
-        <v>4</v>
+      <c r="D206" s="2">
+        <v>3</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B207" s="8"/>
-      <c r="C207" s="8"/>
-      <c r="D207" s="8"/>
-      <c r="E207" s="8"/>
-      <c r="F207" s="8"/>
+      <c r="A207" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="2">
+        <v>4</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="7" t="s">
+      <c r="A208" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B208" s="9"/>
+      <c r="C208" s="9"/>
+      <c r="D208" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8"/>
+      <c r="D209" s="8"/>
+      <c r="E209" s="8"/>
+      <c r="F209" s="8"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B208" s="7"/>
-      <c r="C208" s="7"/>
-      <c r="D208" s="7"/>
-      <c r="E208" s="7"/>
-      <c r="F208" s="7"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="2">
-        <v>10</v>
-      </c>
-      <c r="F209" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="2">
-        <v>9</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B210" s="7"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="7"/>
+      <c r="E210" s="7"/>
+      <c r="F210" s="7"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F211" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
+      <c r="A212" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
       <c r="D212" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>4</v>
@@ -3510,33 +3518,33 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="2">
-        <v>9</v>
-      </c>
-      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F213" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="2">
         <v>9</v>
       </c>
-      <c r="F214" s="2">
+      <c r="F214" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -3556,33 +3564,33 @@
       <c r="D216" s="2">
         <v>9</v>
       </c>
-      <c r="F216" s="2" t="s">
+      <c r="F216" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="2">
         <v>9</v>
       </c>
-      <c r="F217" s="2">
+      <c r="F217" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="2">
         <v>9</v>
       </c>
-      <c r="F218" s="2">
+      <c r="F218" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3593,48 +3601,48 @@
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="2">
-        <v>9</v>
-      </c>
-      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F219" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="2">
         <v>9</v>
       </c>
-      <c r="F220" s="2" t="s">
+      <c r="F220" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="2">
         <v>9</v>
       </c>
-      <c r="F221" s="2">
+      <c r="F221" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="2">
-        <v>9</v>
-      </c>
-      <c r="F222" s="2">
+        <v>10</v>
+      </c>
+      <c r="F222" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3647,13 +3655,13 @@
       <c r="D223" s="2">
         <v>9</v>
       </c>
-      <c r="F223" s="2" t="s">
+      <c r="F223" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -3666,7 +3674,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -3679,20 +3687,20 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="2">
         <v>9</v>
       </c>
-      <c r="F226" s="2" t="s">
+      <c r="F226" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -3705,7 +3713,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -3718,25 +3726,25 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="2">
         <v>9</v>
       </c>
-      <c r="F229" s="2">
-        <v>3</v>
+      <c r="F229" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>4</v>
@@ -3744,12 +3752,12 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F231" s="2">
         <v>3</v>
@@ -3757,46 +3765,46 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="2">
-        <v>9</v>
-      </c>
-      <c r="F232" s="2">
+        <v>10</v>
+      </c>
+      <c r="F232" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="2">
-        <v>9</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="F233" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="2">
         <v>9</v>
       </c>
-      <c r="F234" s="2" t="s">
+      <c r="F234" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -3809,7 +3817,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -3821,13 +3829,13 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A237" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B237" s="3"/>
-      <c r="C237" s="3"/>
+      <c r="A237" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
       <c r="D237" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>4</v>
@@ -3835,25 +3843,25 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="2">
         <v>10</v>
       </c>
-      <c r="F238" s="2">
+      <c r="F238" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
+      <c r="A239" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
       <c r="D239" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>4</v>
@@ -3861,33 +3869,33 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="2">
         <v>10</v>
       </c>
-      <c r="F240" s="2" t="s">
+      <c r="F240" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="2">
         <v>10</v>
       </c>
-      <c r="F241" s="2">
+      <c r="F241" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -3900,7 +3908,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -3913,7 +3921,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -3926,33 +3934,33 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="2">
         <v>10</v>
       </c>
-      <c r="F245" s="2" t="s">
+      <c r="F245" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="2">
         <v>10</v>
       </c>
-      <c r="F246" s="2">
+      <c r="F246" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -3965,7 +3973,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -3978,54 +3986,54 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="2">
-        <v>9</v>
-      </c>
-      <c r="F249" s="2">
+        <v>10</v>
+      </c>
+      <c r="F249" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="2">
-        <v>5</v>
-      </c>
-      <c r="F250" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F250" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F251" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="2">
-        <v>1</v>
-      </c>
-      <c r="F252" s="2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -4035,15 +4043,15 @@
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F253" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -4056,7 +4064,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -4069,46 +4077,46 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="2">
         <v>1</v>
       </c>
-      <c r="F256" s="2" t="s">
-        <v>4</v>
+      <c r="F256" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="2">
         <v>1</v>
       </c>
-      <c r="F257" s="2" t="s">
-        <v>4</v>
+      <c r="F257" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="2">
-        <v>10</v>
-      </c>
-      <c r="F258" s="2">
+        <v>1</v>
+      </c>
+      <c r="F258" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A259" s="4" t="s">
-        <v>140</v>
+      <c r="A259" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -4120,86 +4128,86 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A260" s="4" t="s">
-        <v>140</v>
+      <c r="A260" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
-      <c r="D260" s="6">
+      <c r="D260" s="2">
+        <v>10</v>
+      </c>
+      <c r="F260" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="2">
         <v>1</v>
       </c>
-      <c r="F260" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A261" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
-      <c r="D261" s="6">
-        <v>6</v>
-      </c>
-      <c r="F261" s="6" t="s">
+      <c r="F261" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A262" s="1" t="s">
-        <v>118</v>
+      <c r="A262" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
-      <c r="D262" s="2">
-        <v>4</v>
-      </c>
-      <c r="F262" s="2">
-        <v>2</v>
+      <c r="D262" s="6">
+        <v>1</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A263" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
-      <c r="D263" s="2">
-        <v>4</v>
-      </c>
-      <c r="F263" s="2">
-        <v>2</v>
+      <c r="A263" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="6">
+        <v>6</v>
+      </c>
+      <c r="F263" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="2">
         <v>4</v>
       </c>
-      <c r="F264" s="2" t="s">
-        <v>4</v>
+      <c r="F264" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="2">
         <v>4</v>
       </c>
-      <c r="F265" s="2" t="s">
-        <v>4</v>
+      <c r="F265" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -4212,7 +4220,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -4225,38 +4233,38 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="2">
-        <v>10</v>
-      </c>
-      <c r="F268" s="2">
+        <v>4</v>
+      </c>
+      <c r="F268" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="2">
-        <v>10</v>
-      </c>
-      <c r="F269" s="2">
+        <v>4</v>
+      </c>
+      <c r="F269" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F270" s="2">
         <v>4</v>
@@ -4264,64 +4272,64 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="2">
-        <v>9</v>
-      </c>
-      <c r="F271" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F271" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="2">
-        <v>9</v>
-      </c>
-      <c r="F272" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F272" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="2">
-        <v>9</v>
-      </c>
-      <c r="F273" s="2">
+        <v>10</v>
+      </c>
+      <c r="F273" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="2">
-        <v>9</v>
-      </c>
-      <c r="F274" s="2">
+        <v>10</v>
+      </c>
+      <c r="F274" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F275" s="2">
         <v>4</v>
@@ -4329,64 +4337,64 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="2">
-        <v>9</v>
-      </c>
-      <c r="F276" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F276" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="2">
-        <v>9</v>
-      </c>
-      <c r="F277" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F277" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A278" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B278" s="3"/>
-      <c r="C278" s="3"/>
+      <c r="A278" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
       <c r="D278" s="2">
-        <v>9</v>
-      </c>
-      <c r="F278" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F278" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="2">
-        <v>9</v>
-      </c>
-      <c r="F279" s="2">
+        <v>10</v>
+      </c>
+      <c r="F279" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A280" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
+      <c r="A280" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
       <c r="D280" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>4</v>
@@ -4394,25 +4402,25 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="2">
-        <v>9</v>
-      </c>
-      <c r="F281" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F281" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>4</v>
@@ -4420,139 +4428,139 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="2">
-        <v>8.69</v>
-      </c>
-      <c r="F283" s="2">
-        <v>3.33</v>
+        <v>9</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A284" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B284" s="7"/>
-      <c r="C284" s="7"/>
-      <c r="D284" s="7"/>
-      <c r="E284" s="7"/>
-      <c r="F284" s="7"/>
+      <c r="A284" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="2">
+        <v>9</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="2">
-        <v>19</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="F285" s="2">
-        <v>7</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A286" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
-      <c r="D286" s="2">
-        <v>19</v>
-      </c>
-      <c r="F286" s="2">
-        <v>7</v>
-      </c>
+      <c r="A286" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B286" s="7"/>
+      <c r="C286" s="7"/>
+      <c r="D286" s="7"/>
+      <c r="E286" s="7"/>
+      <c r="F286" s="7"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F287" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F288" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F289" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F290" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="2">
-        <v>18</v>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="F291" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="2">
-        <v>18</v>
-      </c>
-      <c r="F292" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="F292" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>4</v>
@@ -4560,7 +4568,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -4573,7 +4581,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -4585,9 +4593,11 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
-        <v>143</v>
-      </c>
+      <c r="A296" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
       <c r="D296" s="2">
         <v>20</v>
       </c>
@@ -4596,133 +4606,157 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A297" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B297" s="7"/>
-      <c r="C297" s="7"/>
-      <c r="D297" s="7"/>
-      <c r="E297" s="7"/>
-      <c r="F297" s="7"/>
+      <c r="A297" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="2">
+        <v>20</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A298" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B298" s="1"/>
-      <c r="C298" s="1"/>
+      <c r="A298" t="s">
+        <v>142</v>
+      </c>
       <c r="D298" s="2">
+        <v>20</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B299" s="7"/>
+      <c r="C299" s="7"/>
+      <c r="D299" s="7"/>
+      <c r="E299" s="7"/>
+      <c r="F299" s="7"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="2">
         <v>30</v>
       </c>
-      <c r="F298" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B299" s="1"/>
-      <c r="C299" s="1"/>
-      <c r="D299" s="2">
-        <v>16</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D300" s="2" t="s">
-        <v>132</v>
+      <c r="F300" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D301" s="2" t="s">
-        <v>132</v>
+      <c r="A301" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="2">
+        <v>17</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D302" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D303" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D304" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>134</v>
-      </c>
       <c r="D305" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D306" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>133</v>
+      </c>
       <c r="D307" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D308" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
-        <v>135</v>
-      </c>
       <c r="D309" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D310" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>134</v>
+      </c>
       <c r="D311" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D312" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
-        <v>136</v>
-      </c>
       <c r="D313" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D314" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>135</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A297:F297"/>
+    <mergeCell ref="A299:F299"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A144:F144"/>
-    <mergeCell ref="A171:F171"/>
-    <mergeCell ref="A185:F185"/>
-    <mergeCell ref="A193:F193"/>
-    <mergeCell ref="A198:F198"/>
-    <mergeCell ref="A207:F207"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A284:F284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A186:F186"/>
+    <mergeCell ref="A194:F194"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A209:F209"/>
+    <mergeCell ref="A210:F210"/>
+    <mergeCell ref="A286:F286"/>
   </mergeCells>
   <pageMargins left="0.70000004768371604" right="0.70000004768371604" top="0.75" bottom="0.75" header="0.30000001192092901" footer="0.30000001192092901"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
